--- a/public/template/excel/laporan_perpolda_perhari.xlsx
+++ b/public/template/excel/laporan_perpolda_perhari.xlsx
@@ -1101,7 +1101,7 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1258,7 +1258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1411,9 +1411,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,10 +1733,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61"/>
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1815,10 +1812,10 @@
       <c r="BX1" s="3"/>
     </row>
     <row r="2" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1894,10 +1891,10 @@
       <c r="BX2" s="3"/>
     </row>
     <row r="3" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1972,46 +1969,46 @@
       <c r="BX3" s="3"/>
     </row>
     <row r="5" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
@@ -2051,46 +2048,46 @@
       <c r="BX5" s="3"/>
     </row>
     <row r="6" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
@@ -2130,11 +2127,11 @@
       <c r="BX6" s="3"/>
     </row>
     <row r="7" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -60232,8 +60229,8 @@
       <c r="A413" s="58"/>
       <c r="B413" s="58"/>
       <c r="C413" s="59"/>
-      <c r="D413" s="64"/>
-      <c r="E413" s="64"/>
+      <c r="D413" s="63"/>
+      <c r="E413" s="63"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
@@ -60388,10 +60385,10 @@
       <c r="C415" s="59"/>
       <c r="D415" s="59"/>
       <c r="E415" s="59"/>
-      <c r="AI415" s="65"/>
-      <c r="AJ415" s="65"/>
-      <c r="AK415" s="65"/>
-      <c r="AL415" s="65"/>
+      <c r="AI415" s="64"/>
+      <c r="AJ415" s="64"/>
+      <c r="AK415" s="64"/>
+      <c r="AL415" s="64"/>
       <c r="AM415" s="2"/>
       <c r="AN415" s="3"/>
       <c r="AO415" s="3"/>
@@ -60437,10 +60434,10 @@
       <c r="C416" s="59"/>
       <c r="D416" s="59"/>
       <c r="E416" s="59"/>
-      <c r="AI416" s="66"/>
-      <c r="AJ416" s="66"/>
-      <c r="AK416" s="66"/>
-      <c r="AL416" s="66"/>
+      <c r="AI416" s="65"/>
+      <c r="AJ416" s="65"/>
+      <c r="AK416" s="65"/>
+      <c r="AL416" s="65"/>
       <c r="AM416" s="2"/>
       <c r="AN416" s="3"/>
       <c r="AO416" s="3"/>
@@ -60487,8 +60484,8 @@
       <c r="D417" s="59"/>
       <c r="E417" s="59"/>
       <c r="AI417" s="59"/>
-      <c r="AJ417" s="64"/>
-      <c r="AK417" s="64"/>
+      <c r="AJ417" s="63"/>
+      <c r="AK417" s="63"/>
       <c r="AL417" s="59"/>
       <c r="AM417" s="2"/>
       <c r="AN417" s="3"/>
@@ -60633,10 +60630,10 @@
       <c r="C420" s="59"/>
       <c r="D420" s="59"/>
       <c r="E420" s="59"/>
-      <c r="AI420" s="67"/>
-      <c r="AJ420" s="67"/>
-      <c r="AK420" s="67"/>
-      <c r="AL420" s="67"/>
+      <c r="AI420" s="66"/>
+      <c r="AJ420" s="66"/>
+      <c r="AK420" s="66"/>
+      <c r="AL420" s="66"/>
       <c r="AM420" s="2"/>
       <c r="AN420" s="3"/>
       <c r="AO420" s="3"/>
@@ -60682,10 +60679,10 @@
       <c r="C421" s="59"/>
       <c r="D421" s="59"/>
       <c r="E421" s="59"/>
-      <c r="AI421" s="60"/>
-      <c r="AJ421" s="60"/>
-      <c r="AK421" s="60"/>
-      <c r="AL421" s="60"/>
+      <c r="AI421" s="61"/>
+      <c r="AJ421" s="61"/>
+      <c r="AK421" s="61"/>
+      <c r="AL421" s="61"/>
       <c r="AM421" s="2"/>
       <c r="AN421" s="3"/>
       <c r="AO421" s="3"/>
@@ -62631,5 +62628,6 @@
     <mergeCell ref="AI420:AL420"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>